--- a/01_raw_data/Song2023_raw-data.xlsx
+++ b/01_raw_data/Song2023_raw-data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar/Documents/methane_letter/01_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A57E4FC-2A9F-284B-988A-50266EC624AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9198931-BFF0-0844-A3EB-73A79B223313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17300" yWindow="1020" windowWidth="21100" windowHeight="20580" xr2:uid="{DEA953FA-A8F5-E043-B8AF-078D01C0F211}"/>
+    <workbookView xWindow="13700" yWindow="500" windowWidth="37360" windowHeight="27900" xr2:uid="{DEA953FA-A8F5-E043-B8AF-078D01C0F211}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="51">
   <si>
     <t>Majumder et al. 2014</t>
   </si>
@@ -176,19 +176,37 @@
   </si>
   <si>
     <t>ch4_kg_per_day</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Digester not in measurement</t>
+  </si>
+  <si>
+    <t>has_ad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,8 +229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D00BEE-9765-DF41-9997-CA6AC721EE6C}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,7 +559,7 @@
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -550,8 +569,11 @@
       <c r="C1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -561,8 +583,11 @@
       <c r="C2">
         <v>56.767123290000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -572,8 +597,11 @@
       <c r="C3">
         <v>1853.344077</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -583,8 +611,11 @@
       <c r="C4">
         <v>18694.601129999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -594,8 +625,11 @@
       <c r="C5">
         <v>6607.5745370000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -605,8 +639,11 @@
       <c r="C6">
         <v>2417.4053180000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -616,8 +653,11 @@
       <c r="C7">
         <v>1772.7638999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -627,8 +667,11 @@
       <c r="C8">
         <v>306.2046737</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -638,8 +681,11 @@
       <c r="C9">
         <v>178.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -649,8 +695,11 @@
       <c r="C10">
         <v>1521.4285709999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -660,8 +709,11 @@
       <c r="C11">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -671,8 +723,11 @@
       <c r="C12">
         <v>324</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -682,8 +737,11 @@
       <c r="C13">
         <v>194.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -693,8 +751,11 @@
       <c r="C14">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -704,8 +765,11 @@
       <c r="C15">
         <v>295.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -715,8 +779,11 @@
       <c r="C16">
         <v>17.48767123</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -726,8 +793,11 @@
       <c r="C17">
         <v>1.8301369860000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -737,8 +807,11 @@
       <c r="C18">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -748,8 +821,11 @@
       <c r="C19">
         <v>0.1177</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -759,8 +835,11 @@
       <c r="C20">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -770,8 +849,11 @@
       <c r="C21">
         <v>42.99</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -781,8 +863,11 @@
       <c r="C22">
         <v>56.524999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -792,8 +877,11 @@
       <c r="C23">
         <v>96.30285714</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -803,8 +891,11 @@
       <c r="C24">
         <v>1.047713E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -814,8 +905,11 @@
       <c r="C25">
         <v>1.794E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -825,8 +919,11 @@
       <c r="C26">
         <v>2.215E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -836,8 +933,11 @@
       <c r="C27">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -847,8 +947,11 @@
       <c r="C28">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -858,8 +961,11 @@
       <c r="C29">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -869,8 +975,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -880,8 +989,11 @@
       <c r="C31">
         <v>21.03905</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -891,8 +1003,11 @@
       <c r="C32">
         <v>286.87</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -902,8 +1017,11 @@
       <c r="C33">
         <v>247.07429999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -913,8 +1031,11 @@
       <c r="C34">
         <v>0.79650600000000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -924,8 +1045,11 @@
       <c r="C35">
         <v>3.5267142859999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -935,8 +1059,11 @@
       <c r="C36">
         <v>3.8879999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -946,8 +1073,11 @@
       <c r="C37">
         <v>22.608000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -957,8 +1087,11 @@
       <c r="C38">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -968,8 +1101,11 @@
       <c r="C39">
         <v>105.2054795</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -979,8 +1115,11 @@
       <c r="C40">
         <v>46.704599999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -990,8 +1129,11 @@
       <c r="C41">
         <v>45.681600000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1001,8 +1143,11 @@
       <c r="C42">
         <v>33.814799999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1012,8 +1157,11 @@
       <c r="C43">
         <v>53.772599999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1023,8 +1171,11 @@
       <c r="C44">
         <v>53.995800000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1034,8 +1185,11 @@
       <c r="C45">
         <v>59.724600000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1045,8 +1199,11 @@
       <c r="C46">
         <v>86.210999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1056,8 +1213,11 @@
       <c r="C47">
         <v>90.656400000000005</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1067,8 +1227,11 @@
       <c r="C48">
         <v>1289.2828360000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -1078,8 +1241,11 @@
       <c r="C49">
         <v>402.90088639999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1089,8 +1255,11 @@
       <c r="C50">
         <v>1128.122482</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -1100,8 +1269,11 @@
       <c r="C51">
         <v>5721.1925869999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -1111,8 +1283,11 @@
       <c r="C52">
         <v>12892.82836</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1122,8 +1297,11 @@
       <c r="C53">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1133,8 +1311,11 @@
       <c r="C54">
         <v>9.63786E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -1144,8 +1325,11 @@
       <c r="C55">
         <v>3888.24</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1155,8 +1339,11 @@
       <c r="C56">
         <v>54.439428569999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1166,8 +1353,11 @@
       <c r="C57">
         <v>6.9693120000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1177,8 +1367,11 @@
       <c r="C58">
         <v>127.52528</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -1188,8 +1381,11 @@
       <c r="C59">
         <v>2.52E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -1199,8 +1395,11 @@
       <c r="C60">
         <v>2.8899999999999999E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -1210,8 +1409,11 @@
       <c r="C61">
         <v>0.50829999999999997</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -1221,8 +1423,11 @@
       <c r="C62">
         <v>7.3667749999999999E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1232,8 +1437,11 @@
       <c r="C63">
         <v>0.497733333</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -1243,8 +1451,11 @@
       <c r="C64">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -1254,8 +1465,11 @@
       <c r="C65">
         <v>2880</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -1265,8 +1479,11 @@
       <c r="C66">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -1276,8 +1493,11 @@
       <c r="C67">
         <v>161</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -1287,8 +1507,11 @@
       <c r="C68">
         <v>666.44137799999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -1298,8 +1521,11 @@
       <c r="C69">
         <v>27.40821918</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -1309,8 +1535,11 @@
       <c r="C70">
         <v>65.106849319999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -1320,8 +1549,11 @@
       <c r="C71">
         <v>208.25753420000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -1331,8 +1563,11 @@
       <c r="C72">
         <v>480.04109590000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -1342,8 +1577,11 @@
       <c r="C73">
         <v>661.2520548</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -1353,8 +1591,11 @@
       <c r="C74">
         <v>38.616438359999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -1364,8 +1605,11 @@
       <c r="C75">
         <v>60.802739729999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -1375,8 +1619,11 @@
       <c r="C76">
         <v>1.178082192</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -1386,8 +1633,11 @@
       <c r="C77">
         <v>376.74546700000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -1397,8 +1647,11 @@
       <c r="C78">
         <v>0.26400000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -1408,8 +1661,11 @@
       <c r="C79">
         <v>0.45329999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -1419,8 +1675,11 @@
       <c r="C80">
         <v>618.72006599999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1430,8 +1689,11 @@
       <c r="C81">
         <v>1271.2328769999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -1441,8 +1703,11 @@
       <c r="C82">
         <v>0.157466667</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -1452,8 +1717,11 @@
       <c r="C83">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1731,11 @@
       <c r="C84">
         <v>87.408219180000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -1474,8 +1745,11 @@
       <c r="C85">
         <v>221.61369859999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -1485,8 +1759,11 @@
       <c r="C86">
         <v>2476.8000000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -1496,8 +1773,11 @@
       <c r="C87">
         <v>744</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -1507,8 +1787,11 @@
       <c r="C88">
         <v>4896</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -1518,8 +1801,11 @@
       <c r="C89">
         <v>6960</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -1529,8 +1815,11 @@
       <c r="C90">
         <v>10248</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -1540,8 +1829,11 @@
       <c r="C91">
         <v>1968</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -1551,8 +1843,11 @@
       <c r="C92">
         <v>2184</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -1562,8 +1857,11 @@
       <c r="C93">
         <v>1992</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -1573,8 +1871,11 @@
       <c r="C94">
         <v>3120</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -1584,8 +1885,11 @@
       <c r="C95">
         <v>5496</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -1595,8 +1899,11 @@
       <c r="C96">
         <v>1488</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -1606,8 +1913,11 @@
       <c r="C97">
         <v>1920</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -1617,8 +1927,11 @@
       <c r="C98">
         <v>302</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>41</v>
       </c>
@@ -1628,8 +1941,11 @@
       <c r="C99">
         <v>247.67123290000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -1639,8 +1955,11 @@
       <c r="C100">
         <v>285</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -1650,8 +1969,11 @@
       <c r="C101">
         <v>206.4</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -1661,8 +1983,11 @@
       <c r="C102">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>42</v>
       </c>
@@ -1672,8 +1997,11 @@
       <c r="C103">
         <v>340</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>42</v>
       </c>
@@ -1683,8 +2011,11 @@
       <c r="C104">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>43</v>
       </c>
@@ -1694,8 +2025,11 @@
       <c r="C105">
         <v>624.48</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>43</v>
       </c>
@@ -1705,8 +2039,11 @@
       <c r="C106">
         <v>1644.48</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -1716,8 +2053,11 @@
       <c r="C107">
         <v>2214.2399999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -1727,8 +2067,11 @@
       <c r="C108">
         <v>2026.08</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -1738,8 +2081,11 @@
       <c r="C109">
         <v>760.8</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>43</v>
       </c>
@@ -1749,8 +2095,11 @@
       <c r="C110">
         <v>253.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>43</v>
       </c>
@@ -1760,8 +2109,11 @@
       <c r="C111">
         <v>119.76</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>43</v>
       </c>
@@ -1771,8 +2123,11 @@
       <c r="C112">
         <v>164.16</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -1781,6 +2136,9 @@
       </c>
       <c r="C113">
         <v>941.28</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/01_raw_data/Song2023_raw-data.xlsx
+++ b/01_raw_data/Song2023_raw-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar/Documents/methane_letter/01_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9198931-BFF0-0844-A3EB-73A79B223313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFAFD6A-23C6-1949-8406-EB6D45DEA1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="500" windowWidth="37360" windowHeight="27900" xr2:uid="{DEA953FA-A8F5-E043-B8AF-078D01C0F211}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="29240" windowHeight="18880" xr2:uid="{DEA953FA-A8F5-E043-B8AF-078D01C0F211}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
